--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1644.55135</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4298.46978</v>
-      </c>
-      <c r="D2" t="n">
-        <v>702.01849</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.98571</v>
-      </c>
-      <c r="F2" t="n">
-        <v>760.2887899999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4466.20472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1019.97565</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1026.76319</v>
-      </c>
-      <c r="J2" t="n">
-        <v>461.3528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1552.20382</v>
-      </c>
-      <c r="L2" t="n">
-        <v>287.44773</v>
-      </c>
-      <c r="M2" t="n">
-        <v>503.61751</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2298.07534</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1787.49939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>284.03836</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1828.48438</v>
-      </c>
-      <c r="R2" t="n">
-        <v>537.96233</v>
-      </c>
-      <c r="S2" t="n">
-        <v>66.12897</v>
-      </c>
-      <c r="T2" t="n">
-        <v>613.35565</v>
-      </c>
-      <c r="U2" t="n">
-        <v>673.19762</v>
-      </c>
-      <c r="V2" t="n">
-        <v>227.82791</v>
-      </c>
-      <c r="W2" t="n">
-        <v>894.43899</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5733.80629</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6210.19621</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3685.6714</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1103.41642</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4140.98034</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1363.75669</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4240.34823</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>231.94195</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>68653.95</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1267.60069</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2030.21165</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2730.5772</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>243.65193</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1056.24586</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3097.71958</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1096.3011</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4193.61897</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>116.99627</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1771.23303</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5138.29523</v>
-      </c>
-      <c r="D3" t="n">
-        <v>768.0891800000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.71019</v>
-      </c>
-      <c r="F3" t="n">
-        <v>848.95508</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5040.1356</v>
-      </c>
-      <c r="H3" t="n">
-        <v>861.58061</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1229.84389</v>
-      </c>
-      <c r="J3" t="n">
-        <v>539.79937</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1757.47601</v>
-      </c>
-      <c r="L3" t="n">
-        <v>346.50956</v>
-      </c>
-      <c r="M3" t="n">
-        <v>555.02063</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2622.70032</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1988.31932</v>
-      </c>
-      <c r="P3" t="n">
-        <v>299.68758</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2086.30594</v>
-      </c>
-      <c r="R3" t="n">
-        <v>595.08966</v>
-      </c>
-      <c r="S3" t="n">
-        <v>59.06977</v>
-      </c>
-      <c r="T3" t="n">
-        <v>665.68364</v>
-      </c>
-      <c r="U3" t="n">
-        <v>742.78709</v>
-      </c>
-      <c r="V3" t="n">
-        <v>239.95438</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1054.20286</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6526.89932</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7713.41511</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4167.71568</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1277.46439</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4186.30408</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1336.73854</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4672.26972</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>243.51647</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>77259.89</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1428.47015</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2260.54335</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3020.09942</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>262.26175</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1197.35418</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3423.85225</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1155.54034</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4855.22091</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>138.18068</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2143.95383</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6590.41281</v>
-      </c>
-      <c r="D4" t="n">
-        <v>899.52595</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.24228</v>
-      </c>
-      <c r="F4" t="n">
-        <v>982.83714</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5759.92226</v>
-      </c>
-      <c r="H4" t="n">
-        <v>974.4406300000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1465.07718</v>
-      </c>
-      <c r="J4" t="n">
-        <v>616.74617</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2045.15216</v>
-      </c>
-      <c r="L4" t="n">
-        <v>420.0276</v>
-      </c>
-      <c r="M4" t="n">
-        <v>631.7096299999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3249.82625</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2251.79111</v>
-      </c>
-      <c r="P4" t="n">
-        <v>331.42274</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2365.14712</v>
-      </c>
-      <c r="R4" t="n">
-        <v>676.68528</v>
-      </c>
-      <c r="S4" t="n">
-        <v>55.74282</v>
-      </c>
-      <c r="T4" t="n">
-        <v>788.38566</v>
-      </c>
-      <c r="U4" t="n">
-        <v>806.01868</v>
-      </c>
-      <c r="V4" t="n">
-        <v>303.26892</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1357.26882</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7661.19016</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9503.778120000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4739.42353</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1500.35993</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4336.06398</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1370.93097</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5416.71662</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>270.22146</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90243.75999999999</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1647.26655</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2654.01746</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3510.01175</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>298.14978</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1415.48992</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4052.16284</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1242.99378</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5537.64217</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>169.15403</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
